--- a/Desafio2/desafio2.xlsx
+++ b/Desafio2/desafio2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fcpnedubo-my.sharepoint.com/personal/malvareza_fcpn_edu_bo/Documents/Documents/UMSA/2024-I/II-2024/sis-254/git/SistemasDeEcuaciones/Desafio2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{556521C0-EDDA-43C7-9834-6CCFD8E8B069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{556521C0-EDDA-43C7-9834-6CCFD8E8B069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B5B49EF-D247-46F4-8D04-31741F58CF85}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{5308DD72-27C5-47DA-B5A4-417D5C4A6BD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5308DD72-27C5-47DA-B5A4-417D5C4A6BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,13 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,16 +609,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D419ED5-2712-49CE-B02F-B83C95CC5024}">
   <dimension ref="B3:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -633,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -650,7 +649,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -667,7 +666,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -684,7 +683,7 @@
         <v>5690</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -692,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" s="2" cm="1">
         <f t="array" ref="C9:E11">TRANSPOSE(C4:E6)</f>
         <v>52</v>
@@ -707,7 +706,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>30</v>
       </c>
@@ -721,7 +720,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>18</v>
       </c>
@@ -735,22 +734,22 @@
         <v>5690</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" cm="1">
         <f t="array" ref="C17:E19">_xlfn.ANCHORARRAY(C9)*(1/100)</f>
         <v>0.52</v>
@@ -768,7 +767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>0.3</v>
       </c>
@@ -785,7 +784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>0.18</v>
       </c>
@@ -802,12 +801,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -827,7 +826,7 @@
         <v>9230.7692307692305</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -847,7 +846,7 @@
         <v>11620</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -867,7 +866,7 @@
         <v>10345.454545454544</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -876,7 +875,7 @@
         <v>0.86538461538461542</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>20</v>
       </c>
@@ -888,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>21</v>
       </c>
@@ -900,483 +899,483 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>MAX(C28:C30)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:20" ht="15">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5">
         <v>0</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>3</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>4</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <v>5</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>6</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <v>7</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>8</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
         <v>9</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="5">
         <v>10</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="5">
         <v>11</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="5">
         <v>12</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="5">
         <v>13</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34" s="5">
         <v>14</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="5">
         <v>15</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="5">
         <v>16</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:20" ht="15.75">
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>0</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <f>$D$23*C36+$E$23*C37+$F$23</f>
         <v>9230.7692307692305</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <f t="shared" ref="E35:K35" si="0">$D$23*D36+$E$23*D37+$F$23</f>
         <v>9735.3146853146827</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <f t="shared" si="0"/>
         <v>8957.5040344271092</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <f t="shared" si="0"/>
         <v>10092.261479778961</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <f t="shared" si="0"/>
         <v>9919.4282022442312</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <f t="shared" si="0"/>
         <v>10167.112695339281</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f t="shared" si="0"/>
         <v>10238.12417254687</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <f t="shared" si="0"/>
         <v>10291.859097132759</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="5">
         <f t="shared" ref="L35:T35" si="1">$D$23*K36+$E$23*K37+$F$23</f>
         <v>10339.067148488779</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="5">
         <f t="shared" si="1"/>
         <v>10362.334434897924</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <f t="shared" si="1"/>
         <v>10381.849959986805</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="5">
         <f t="shared" si="1"/>
         <v>10393.68582732253</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="5">
         <f t="shared" si="1"/>
         <v>10401.866155142572</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q35" s="5">
         <f t="shared" si="1"/>
         <v>10407.40561809194</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35" s="5">
         <f t="shared" si="1"/>
         <v>10411.057425366991</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S35" s="5">
         <f t="shared" si="1"/>
         <v>10413.548017119685</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="5">
         <f t="shared" si="1"/>
         <v>10415.205598563707</v>
       </c>
     </row>
-    <row r="36" spans="2:20" ht="15.75">
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>0</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <f>$C$24*C35+$E$24*C37+$F$24</f>
         <v>11620</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <f t="shared" ref="E36:T36" si="2">$C$24*D35+$E$24*D37+$F$24</f>
         <v>1943.3566433566448</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <f t="shared" si="2"/>
         <v>5384.293706293709</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <f t="shared" si="2"/>
         <v>3805.7620421536521</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <f t="shared" si="2"/>
         <v>3773.8349943762541</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <f t="shared" si="2"/>
         <v>3681.6781179307773</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <f t="shared" si="2"/>
         <v>3503.4760734995862</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <f t="shared" si="2"/>
         <v>3473.1863841375534</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="5">
         <f t="shared" si="2"/>
         <v>3411.3610312536621</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="5">
         <f t="shared" si="2"/>
         <v>3383.4619310704875</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="5">
         <f t="shared" si="2"/>
         <v>3362.1923544096662</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <f t="shared" si="2"/>
         <v>3347.4418622644789</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="5">
         <f t="shared" si="2"/>
         <v>3338.2544666032281</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36" s="5">
         <f t="shared" si="2"/>
         <v>3331.6774033489291</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="5">
         <f t="shared" si="2"/>
         <v>3327.4200821678423</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="5">
         <f t="shared" si="2"/>
         <v>3324.5191682425175</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="5">
         <f t="shared" si="2"/>
         <v>3322.57399788558</v>
       </c>
     </row>
-    <row r="37" spans="2:20" ht="15.75">
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>0</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <f>$C$25*C35+$D$25*C36+$F$25</f>
         <v>10345.454545454544</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <f t="shared" ref="E37:K37" si="3">$C$25*D35+$D$25*D36+$F$25</f>
         <v>986.29370629370533</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <f t="shared" si="3"/>
         <v>6099.3388429752058</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <f t="shared" si="3"/>
         <v>4477.0202943909226</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <f t="shared" si="3"/>
         <v>4966.6624018067105</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <f t="shared" si="3"/>
         <v>5040.6407732421121</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <f t="shared" si="3"/>
         <v>5009.8477808358111</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <f t="shared" si="3"/>
         <v>5083.8087761667039</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="5">
         <f t="shared" ref="L37:T37" si="4">$C$25*K35+$D$25*K36+$F$25</f>
         <v>5082.7444495906129</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="5">
         <f t="shared" si="4"/>
         <v>5101.0174616289469</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="5">
         <f t="shared" si="4"/>
         <v>5108.6204043585949</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="5">
         <f t="shared" si="4"/>
         <v>5113.8350925081359</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="5">
         <f t="shared" si="4"/>
         <v>5118.0072589138199</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q37" s="5">
         <f t="shared" si="4"/>
         <v>5120.3413674424874</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="5">
         <f t="shared" si="4"/>
         <v>5122.1159413432215</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37" s="5">
         <f t="shared" si="4"/>
         <v>5123.2429796065244</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="5">
         <f t="shared" si="4"/>
         <v>5124.0101935376388</v>
       </c>
     </row>
-    <row r="39" spans="2:20" ht="15.75">
-      <c r="B39" s="7" t="s">
+    <row r="39" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="2:20" ht="15.75">
-      <c r="B40" s="7" t="s">
+    <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40">
         <f>+ABS(D35-C35)</f>
         <v>9230.7692307692305</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40">
         <f t="shared" ref="D40:L42" si="5">+ABS(E35-D35)</f>
         <v>504.54545454545223</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40">
         <f t="shared" si="5"/>
         <v>777.8106508875735</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40">
         <f t="shared" si="5"/>
         <v>1134.7574453518519</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40">
         <f t="shared" si="5"/>
         <v>172.83327753472986</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40">
         <f t="shared" si="5"/>
         <v>247.68449309505013</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40">
         <f t="shared" si="5"/>
         <v>71.011477207588541</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40">
         <f t="shared" si="5"/>
         <v>53.73492458588953</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40">
         <f t="shared" si="5"/>
         <v>47.208051356019496</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40">
         <f t="shared" si="5"/>
         <v>23.267286409145527</v>
       </c>
     </row>
-    <row r="41" spans="2:20" ht="15.75">
-      <c r="B41" s="7" t="s">
+    <row r="41" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41">
         <f t="shared" ref="C41:C42" si="6">+ABS(D36-C36)</f>
         <v>11620</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41">
         <f t="shared" si="5"/>
         <v>9676.6433566433552</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41">
         <f t="shared" si="5"/>
         <v>3440.9370629370642</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41">
         <f t="shared" si="5"/>
         <v>1578.5316641400568</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41">
         <f t="shared" si="5"/>
         <v>31.927047777398002</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41">
         <f t="shared" si="5"/>
         <v>92.156876445476883</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41">
         <f t="shared" si="5"/>
         <v>178.2020444311911</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41">
         <f t="shared" si="5"/>
         <v>30.289689362032732</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41">
         <f t="shared" si="5"/>
         <v>61.825352883891355</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41">
         <f t="shared" si="5"/>
         <v>27.899100183174596</v>
       </c>
     </row>
-    <row r="42" spans="2:20" ht="15.75">
-      <c r="B42" s="7" t="s">
+    <row r="42" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42">
         <f t="shared" si="6"/>
         <v>10345.454545454544</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42">
         <f t="shared" si="5"/>
         <v>9359.1608391608388</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42">
         <f t="shared" si="5"/>
         <v>5113.0451366815005</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42">
         <f t="shared" si="5"/>
         <v>1622.3185485842832</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42">
         <f t="shared" si="5"/>
         <v>489.6421074157879</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42">
         <f t="shared" si="5"/>
         <v>73.978371435401641</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42">
         <f t="shared" si="5"/>
         <v>30.792992406300982</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42">
         <f t="shared" si="5"/>
         <v>73.960995330892729</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42">
         <f t="shared" si="5"/>
         <v>1.0643265760909344</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42">
         <f t="shared" si="5"/>
         <v>18.273012038333945</v>
       </c>
     </row>
-    <row r="43" spans="2:20" ht="15.75">
-      <c r="B43" s="7" t="s">
+    <row r="43" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43">
         <f>+MAX(C40:C42)</f>
         <v>11620</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43">
         <f t="shared" ref="D43:L43" si="7">+MAX(D40:D42)</f>
         <v>9676.6433566433552</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43">
         <f t="shared" si="7"/>
         <v>5113.0451366815005</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43">
         <f t="shared" si="7"/>
         <v>1622.3185485842832</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43">
         <f t="shared" si="7"/>
         <v>489.6421074157879</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43">
         <f t="shared" si="7"/>
         <v>247.68449309505013</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" t="s">
         <v>29</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43">
         <f t="shared" si="7"/>
         <v>73.960995330892729</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43">
         <f t="shared" si="7"/>
         <v>61.825352883891355</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43">
         <f t="shared" si="7"/>
         <v>27.899100183174596</v>
       </c>
     </row>
-    <row r="47" spans="2:20">
-      <c r="F47" s="10"/>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F47" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
